--- a/pearson_tables/tp_netherlands_cumul-1-8.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-1-8.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5522960160969328</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8404060827406562</v>
+        <v>0.7437728710866437</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5748130047875217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6667587005335461</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.7869340118408754</v>
+        <v>-0.8455971708761988</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.690628317735713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8192190560062355</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7497334752760562</v>
+        <v>0.7387392772873552</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7756581129528359</v>
+        <v>-0.7509114302606947</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8673119027822827</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8488699669861458</v>
+        <v>0.8068560497530896</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7748175625841268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7806473449390574</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.740316696433449</v>
+        <v>-0.6660482183303048</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6975015185002079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7028327544647932</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.8160033233071713</v>
+        <v>0.8264608106165505</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7865145913539038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7231028242362929</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8086749181431619</v>
+        <v>-0.8730779216355401</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7577139993391068</v>
+        <v>0.6744148420103375</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7741967211809397</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.8129398103212579</v>
+        <v>0.7206093807323319</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7470437612379602</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
